--- a/output/1Y_P60_1VAL-D.xlsx
+++ b/output/1Y_P60_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>14.6185</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>684.0647</v>
       </c>
-      <c r="G2" s="1">
-        <v>684.0647</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1479</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.6185</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1479</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>15.2363</v>
       </c>
+      <c r="E3" s="1">
+        <v>684.0647</v>
+      </c>
       <c r="F3" s="1">
         <v>656.3273</v>
       </c>
-      <c r="G3" s="1">
-        <v>1340.392</v>
-      </c>
       <c r="H3" s="1">
-        <v>20316.7242</v>
+        <v>10368.5741</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.921</v>
+        <v>10368.5741</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.6185</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20316.7242</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0185</v>
+        <v>0.0369</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>15.9097</v>
       </c>
+      <c r="E4" s="1">
+        <v>1340.392</v>
+      </c>
       <c r="F4" s="1">
         <v>628.5474</v>
       </c>
-      <c r="G4" s="1">
-        <v>1968.9394</v>
-      </c>
       <c r="H4" s="1">
-        <v>31162.7977</v>
+        <v>21214.6528</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.2366</v>
+        <v>21214.6528</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.921</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31162.7977</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0279</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>15.3909</v>
       </c>
+      <c r="E5" s="1">
+        <v>1968.9394</v>
+      </c>
       <c r="F5" s="1">
         <v>649.7346</v>
       </c>
-      <c r="G5" s="1">
-        <v>2618.674</v>
-      </c>
       <c r="H5" s="1">
-        <v>40094.7792</v>
+        <v>30146.6281</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.2749</v>
+        <v>30146.6281</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.2366</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40094.7792</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0259</v>
+        <v>-0.0342</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>16.1095</v>
       </c>
+      <c r="E6" s="1">
+        <v>2618.674</v>
+      </c>
       <c r="F6" s="1">
         <v>620.7517</v>
       </c>
-      <c r="G6" s="1">
-        <v>3239.4257</v>
-      </c>
       <c r="H6" s="1">
-        <v>51915.0365</v>
+        <v>41966.8693</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.4348</v>
+        <v>41966.8693</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.2749</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51915.0365</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0363</v>
+        <v>0.0453</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>16.1222</v>
       </c>
+      <c r="E7" s="1">
+        <v>3239.4257</v>
+      </c>
       <c r="F7" s="1">
         <v>620.2627</v>
       </c>
-      <c r="G7" s="1">
-        <v>3859.6885</v>
-      </c>
       <c r="H7" s="1">
-        <v>61903.9993</v>
+        <v>51955.8533</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.5453</v>
+        <v>51955.8533</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>15.4348</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.2</v>
       </c>
-      <c r="L7" s="1">
-        <v>583.0966</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-9416.903399999999</v>
+        <v>471.3613</v>
       </c>
       <c r="O7" s="1">
-        <v>583.0966</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>62487.0959</v>
+        <v>-9528.6387</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0092</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.3453</v>
       </c>
+      <c r="E8" s="1">
+        <v>3859.6885</v>
+      </c>
       <c r="F8" s="1">
-        <v>582.1279</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4441.8163</v>
+        <v>581.0542</v>
       </c>
       <c r="H8" s="1">
-        <v>76644.8735</v>
+        <v>66600.0822</v>
       </c>
       <c r="I8" s="1">
-        <v>70097.1828</v>
+        <v>471.3613</v>
       </c>
       <c r="J8" s="1">
-        <v>15.7812</v>
+        <v>67071.4436</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60078.5602</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.5657</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10097.1828</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>485.9139</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>77130.7874</v>
+        <v>-10078.5602</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0641</v>
+        <v>0.08260000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.8769</v>
       </c>
+      <c r="E9" s="1">
+        <v>4440.7427</v>
+      </c>
       <c r="F9" s="1">
-        <v>564.8173</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5006.6337</v>
+        <v>563.7756000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>89038.97440000001</v>
+        <v>78975.0564</v>
       </c>
       <c r="I9" s="1">
-        <v>80194.3655</v>
+        <v>392.8011</v>
       </c>
       <c r="J9" s="1">
-        <v>16.0176</v>
+        <v>79367.8575</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70157.1204</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.7985</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10097.1828</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>388.7311</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>89427.7055</v>
+        <v>-10078.5602</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0264</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.8772</v>
       </c>
+      <c r="E10" s="1">
+        <v>5004.5183</v>
+      </c>
       <c r="F10" s="1">
-        <v>564.8078</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5571.4415</v>
+        <v>563.7662</v>
       </c>
       <c r="H10" s="1">
-        <v>99085.3014</v>
+        <v>89002.856</v>
       </c>
       <c r="I10" s="1">
-        <v>90291.54829999999</v>
+        <v>314.2409</v>
       </c>
       <c r="J10" s="1">
-        <v>16.2061</v>
+        <v>89317.0968</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80235.6807</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.0326</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10097.1828</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>291.5483</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>99376.8498</v>
+        <v>-10078.5602</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0005</v>
+        <v>-0.0005999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>18.1874</v>
       </c>
+      <c r="E11" s="1">
+        <v>5568.2845</v>
+      </c>
       <c r="F11" s="1">
-        <v>555.1746000000001</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6126.6161</v>
+        <v>554.1507</v>
       </c>
       <c r="H11" s="1">
-        <v>110849.4781</v>
+        <v>100747.5277</v>
       </c>
       <c r="I11" s="1">
-        <v>100388.7311</v>
+        <v>235.6807</v>
       </c>
       <c r="J11" s="1">
-        <v>16.3857</v>
+        <v>100983.2083</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90314.2409</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.2194</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10097.1828</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>194.3655</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>111043.8436</v>
+        <v>-10078.5602</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0152</v>
+        <v>0.0168</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.6132</v>
       </c>
+      <c r="E12" s="1">
+        <v>6122.4352</v>
+      </c>
       <c r="F12" s="1">
-        <v>573.2736</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6699.8897</v>
+        <v>572.2163</v>
       </c>
       <c r="H12" s="1">
-        <v>117394.1279</v>
+        <v>107276.0843</v>
       </c>
       <c r="I12" s="1">
-        <v>110485.9139</v>
+        <v>157.1204</v>
       </c>
       <c r="J12" s="1">
-        <v>16.4907</v>
+        <v>107433.2047</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100392.8011</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.3975</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10097.1828</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>97.1828</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>117491.3106</v>
+        <v>-10078.5602</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0293</v>
+        <v>-0.032</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.806</v>
       </c>
+      <c r="E13" s="1">
+        <v>6694.6515</v>
+      </c>
       <c r="F13" s="1">
-        <v>567.0663</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7266.956</v>
+        <v>566.0205</v>
       </c>
       <c r="H13" s="1">
-        <v>128724.6793</v>
+        <v>118587.0475</v>
       </c>
       <c r="I13" s="1">
-        <v>120583.0966</v>
+        <v>78.56019999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>16.5933</v>
+        <v>118665.6077</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110471.3613</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.5014</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10097.1828</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>128724.6793</v>
+        <v>-10078.5602</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0097</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>18.3524</v>
       </c>
+      <c r="E14" s="1">
+        <v>7260.6719</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7266.956</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6694.6515</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>132559.5392</v>
       </c>
       <c r="I14" s="1">
-        <v>120583.0966</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.5933</v>
+        <v>132559.5392</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110471.3613</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.215</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>132674.2699</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>132674.2699</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>132674.2699</v>
+        <v>122225.5906</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0436</v>
+        <v>0.0303</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>14.6185</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>684.0647</v>
       </c>
       <c r="G2" s="1">
-        <v>684.0647</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1479</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.6185</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1479</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>15.2363</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>684.0647</v>
       </c>
       <c r="F3" s="1">
         <v>635.4315</v>
       </c>
       <c r="G3" s="1">
-        <v>1319.4962</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10368.5741</v>
       </c>
       <c r="I3" s="1">
-        <v>19681.625</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.916</v>
+        <v>10368.5741</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9681.625</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.1531</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9681.625</v>
       </c>
-      <c r="O3" s="1">
-        <v>318.375</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20318.375</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0186</v>
+        <v>0.0369</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>15.9097</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1319.4962</v>
       </c>
       <c r="F4" s="1">
         <v>575.9749</v>
       </c>
       <c r="G4" s="1">
-        <v>1895.4711</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20883.9305</v>
       </c>
       <c r="I4" s="1">
-        <v>28845.2124</v>
+        <v>318.375</v>
       </c>
       <c r="J4" s="1">
-        <v>15.218</v>
+        <v>21202.3055</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18845.2124</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.2821</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9163.5874</v>
       </c>
-      <c r="O4" s="1">
-        <v>1154.7876</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31154.7876</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0276</v>
+        <v>0.0409</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>15.3909</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1895.4711</v>
       </c>
       <c r="F5" s="1">
         <v>717.0127</v>
       </c>
       <c r="G5" s="1">
-        <v>2612.4838</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>29021.7474</v>
       </c>
       <c r="I5" s="1">
-        <v>39880.6827</v>
+        <v>1154.7876</v>
       </c>
       <c r="J5" s="1">
-        <v>15.2654</v>
+        <v>30176.5349</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29880.6827</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.7643</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-11035.4702</v>
       </c>
-      <c r="O5" s="1">
-        <v>119.3173</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40119.3173</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0252</v>
+        <v>-0.0329</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>16.1095</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2612.4838</v>
       </c>
       <c r="F6" s="1">
         <v>507.4464</v>
       </c>
       <c r="G6" s="1">
-        <v>3119.9301</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41867.6646</v>
       </c>
       <c r="I6" s="1">
-        <v>48055.3898</v>
+        <v>119.3173</v>
       </c>
       <c r="J6" s="1">
-        <v>15.4027</v>
+        <v>41986.982</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38055.3898</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.5667</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8174.7071</v>
       </c>
-      <c r="O6" s="1">
-        <v>1944.6102</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51944.6102</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0364</v>
+        <v>0.0451</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>16.1222</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3119.9301</v>
       </c>
       <c r="F7" s="1">
         <v>621.0448</v>
       </c>
       <c r="G7" s="1">
-        <v>3740.9749</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>50039.3111</v>
       </c>
       <c r="I7" s="1">
-        <v>58067.998</v>
+        <v>1944.6102</v>
       </c>
       <c r="J7" s="1">
-        <v>15.5222</v>
+        <v>51983.9213</v>
       </c>
       <c r="K7" s="1">
+        <v>48067.998</v>
+      </c>
+      <c r="L7" s="1">
+        <v>15.4068</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.2</v>
       </c>
-      <c r="L7" s="1">
-        <v>561.5874</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-9451.0208</v>
+        <v>470.2471</v>
       </c>
       <c r="O7" s="1">
-        <v>2493.5894</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>62493.5894</v>
+        <v>-9542.3611</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0089</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>17.3453</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3740.9749</v>
       </c>
       <c r="F8" s="1">
         <v>315.7497</v>
       </c>
       <c r="G8" s="1">
-        <v>4056.7246</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>64551.6442</v>
       </c>
       <c r="I8" s="1">
-        <v>63544.7713</v>
+        <v>2402.249</v>
       </c>
       <c r="J8" s="1">
-        <v>15.6641</v>
+        <v>66953.89320000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>53544.7713</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.3131</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-5476.7733</v>
       </c>
-      <c r="O8" s="1">
-        <v>7016.8161</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77016.8161</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0624</v>
+        <v>0.08019999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.8769</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4056.7246</v>
       </c>
       <c r="F9" s="1">
         <v>441.6504</v>
       </c>
       <c r="G9" s="1">
-        <v>4498.375</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>72145.60159999999</v>
       </c>
       <c r="I9" s="1">
-        <v>71440.1107</v>
+        <v>6925.4757</v>
       </c>
       <c r="J9" s="1">
-        <v>15.8813</v>
+        <v>79071.07739999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>61440.1107</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.1453</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7895.3393</v>
       </c>
-      <c r="O9" s="1">
-        <v>9121.476699999999</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89121.4767</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0242</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.8772</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4498.375</v>
       </c>
       <c r="F10" s="1">
         <v>562.2115</v>
       </c>
       <c r="G10" s="1">
-        <v>5060.5865</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>80001.3495</v>
       </c>
       <c r="I10" s="1">
-        <v>81490.87820000001</v>
+        <v>9030.136399999999</v>
       </c>
       <c r="J10" s="1">
-        <v>16.1031</v>
+        <v>89031.4859</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>71490.87820000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.8926</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10050.7675</v>
       </c>
-      <c r="O10" s="1">
-        <v>9070.709199999999</v>
-      </c>
-      <c r="P10" s="1">
-        <v>99070.7092</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0005</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>18.1874</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5060.5865</v>
       </c>
       <c r="F11" s="1">
         <v>466.3824</v>
       </c>
       <c r="G11" s="1">
-        <v>5526.9688</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>91561.697</v>
       </c>
       <c r="I11" s="1">
-        <v>89973.1611</v>
+        <v>8979.368899999999</v>
       </c>
       <c r="J11" s="1">
-        <v>16.2789</v>
+        <v>100541.0659</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>79973.1611</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.8031</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-8482.2829</v>
       </c>
-      <c r="O11" s="1">
-        <v>10588.4264</v>
-      </c>
-      <c r="P11" s="1">
-        <v>110588.4264</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0139</v>
+        <v>0.0152</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.6132</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5526.9688</v>
       </c>
       <c r="F12" s="1">
         <v>750.925</v>
       </c>
       <c r="G12" s="1">
-        <v>6277.8938</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>96842.4427</v>
       </c>
       <c r="I12" s="1">
-        <v>103199.3529</v>
+        <v>10497.086</v>
       </c>
       <c r="J12" s="1">
-        <v>16.4385</v>
+        <v>107339.5287</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>93199.3529</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.8627</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-13226.1918</v>
       </c>
-      <c r="O12" s="1">
-        <v>7362.2345</v>
-      </c>
-      <c r="P12" s="1">
-        <v>117362.2345</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0268</v>
+        <v>-0.029</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.806</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6277.8938</v>
       </c>
       <c r="F13" s="1">
         <v>496.5237</v>
       </c>
       <c r="G13" s="1">
-        <v>6774.4175</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>111204.7278</v>
       </c>
       <c r="I13" s="1">
-        <v>112040.4542</v>
+        <v>7270.8942</v>
       </c>
       <c r="J13" s="1">
-        <v>16.5388</v>
+        <v>118475.622</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>102040.4542</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.2539</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-8841.1013</v>
       </c>
-      <c r="O13" s="1">
-        <v>8521.1332</v>
-      </c>
-      <c r="P13" s="1">
-        <v>128521.1332</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0091</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>18.3524</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6774.4175</v>
       </c>
       <c r="F14" s="1">
         <v>-6774.4175</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>123681.8959</v>
       </c>
       <c r="I14" s="1">
-        <v>112040.4542</v>
+        <v>8429.7929</v>
       </c>
       <c r="J14" s="1">
-        <v>16.5388</v>
+        <v>132111.6888</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>102040.4542</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.0626</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>123681.8959</v>
       </c>
-      <c r="O14" s="1">
-        <v>132203.0291</v>
-      </c>
-      <c r="P14" s="1">
-        <v>132203.0291</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0456</v>
+        <v>0.0283</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>14.6185</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>684.0647</v>
       </c>
       <c r="G2" s="1">
-        <v>684.0647</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1479</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.6185</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1479</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>15.2363</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>684.0647</v>
       </c>
       <c r="F3" s="1">
         <v>638.7302</v>
       </c>
       <c r="G3" s="1">
-        <v>1322.795</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10368.5741</v>
       </c>
       <c r="I3" s="1">
-        <v>19731.8856</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.9168</v>
+        <v>10368.5741</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9731.8856</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.2266</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9731.8856</v>
       </c>
-      <c r="O3" s="1">
-        <v>268.1144</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20318.1144</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0185</v>
+        <v>0.0369</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>15.9097</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1322.795</v>
       </c>
       <c r="F4" s="1">
         <v>582.1693</v>
       </c>
       <c r="G4" s="1">
-        <v>1904.9642</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20936.1403</v>
       </c>
       <c r="I4" s="1">
-        <v>28994.0242</v>
+        <v>268.1144</v>
       </c>
       <c r="J4" s="1">
-        <v>15.2202</v>
+        <v>21204.2547</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18994.0242</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.359</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9262.1386</v>
       </c>
-      <c r="O4" s="1">
-        <v>1005.9758</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31156.2258</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0276</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>15.3909</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1904.9642</v>
       </c>
       <c r="F5" s="1">
         <v>715.0963</v>
       </c>
       <c r="G5" s="1">
-        <v>2620.0605</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40116.009</v>
+        <v>29167.098</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>1005.9758</v>
       </c>
       <c r="J5" s="1">
-        <v>15.2668</v>
+        <v>30173.0737</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.7483</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-11005.9758</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40116.009</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0253</v>
+        <v>-0.033</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>16.1095</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2620.0605</v>
       </c>
       <c r="F6" s="1">
         <v>531.2252999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>3151.2858</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>41989.0903</v>
       </c>
       <c r="I6" s="1">
-        <v>48557.7733</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.4089</v>
+        <v>41989.0903</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38557.7733</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.7164</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8557.773300000001</v>
       </c>
-      <c r="O6" s="1">
-        <v>1442.2267</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51944.733</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0365</v>
+        <v>0.0452</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>16.1222</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3151.2858</v>
       </c>
       <c r="F7" s="1">
         <v>636.7642</v>
       </c>
       <c r="G7" s="1">
-        <v>3788.05</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>50542.2125</v>
       </c>
       <c r="I7" s="1">
-        <v>58823.8131</v>
+        <v>1442.2267</v>
       </c>
       <c r="J7" s="1">
-        <v>15.5288</v>
+        <v>51984.4392</v>
       </c>
       <c r="K7" s="1">
+        <v>48823.8131</v>
+      </c>
+      <c r="L7" s="1">
+        <v>15.4933</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.2</v>
       </c>
-      <c r="L7" s="1">
-        <v>567.2314</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-9698.8084</v>
+        <v>471.6109</v>
       </c>
       <c r="O7" s="1">
-        <v>1743.4184</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>62498.4372</v>
+        <v>-9794.428900000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0089</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>17.3453</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3788.05</v>
       </c>
       <c r="F8" s="1">
         <v>330.0351</v>
       </c>
       <c r="G8" s="1">
-        <v>4118.0851</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>65363.9392</v>
       </c>
       <c r="I8" s="1">
-        <v>64548.3709</v>
+        <v>1647.7978</v>
       </c>
       <c r="J8" s="1">
-        <v>15.6744</v>
+        <v>67011.7371</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>54548.3709</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.4001</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-5724.5578</v>
       </c>
-      <c r="O8" s="1">
-        <v>6018.8606</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77077.6544</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.06320000000000001</v>
+        <v>0.08110000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.8769</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4118.0851</v>
       </c>
       <c r="F9" s="1">
         <v>459.8036</v>
       </c>
       <c r="G9" s="1">
-        <v>4577.8887</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>73236.84910000001</v>
       </c>
       <c r="I9" s="1">
-        <v>72768.2334</v>
+        <v>5923.24</v>
       </c>
       <c r="J9" s="1">
-        <v>15.8956</v>
+        <v>79160.0891</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>62768.2334</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.2421</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8219.862499999999</v>
       </c>
-      <c r="O9" s="1">
-        <v>7798.998</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89213.08590000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0245</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,40 +2648,40 @@
         <v>17.8772</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4577.8887</v>
       </c>
       <c r="F10" s="1">
         <v>585.0992</v>
       </c>
       <c r="G10" s="1">
-        <v>5162.9879</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>81415.46120000001</v>
       </c>
       <c r="I10" s="1">
-        <v>83228.1692</v>
+        <v>7703.3775</v>
       </c>
       <c r="J10" s="1">
-        <v>16.1202</v>
+        <v>89118.83869999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>73228.1692</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.9961</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10459.9358</v>
-      </c>
-      <c r="O10" s="1">
-        <v>7339.0622</v>
-      </c>
-      <c r="P10" s="1">
-        <v>99160.2205</v>
       </c>
       <c r="Q10" s="3">
         <v>-0.0005</v>
@@ -2716,43 +2701,43 @@
         <v>18.1874</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5162.9879</v>
       </c>
       <c r="F11" s="1">
         <v>490.0104</v>
       </c>
       <c r="G11" s="1">
-        <v>5652.9983</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>93414.4564</v>
       </c>
       <c r="I11" s="1">
-        <v>92140.18489999999</v>
+        <v>7243.4417</v>
       </c>
       <c r="J11" s="1">
-        <v>16.2993</v>
+        <v>100657.898</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>82140.18489999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.9094</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-8912.0157</v>
       </c>
-      <c r="O11" s="1">
-        <v>8427.0465</v>
-      </c>
-      <c r="P11" s="1">
-        <v>110707.3106</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0142</v>
+        <v>0.0155</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.6132</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5652.9983</v>
       </c>
       <c r="F12" s="1">
         <v>784.2208000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>6437.2191</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>99050.7061</v>
       </c>
       <c r="I12" s="1">
-        <v>105952.822</v>
+        <v>8331.425999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>16.4594</v>
+        <v>107382.1321</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>95952.822</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.9738</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-13812.637</v>
       </c>
-      <c r="O12" s="1">
-        <v>4614.4095</v>
-      </c>
-      <c r="P12" s="1">
-        <v>117406.0749</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0273</v>
+        <v>-0.0296</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.806</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6437.2191</v>
       </c>
       <c r="F13" s="1">
         <v>526.6351</v>
       </c>
       <c r="G13" s="1">
-        <v>6963.8542</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>114026.9677</v>
       </c>
       <c r="I13" s="1">
-        <v>115330.0864</v>
+        <v>4518.7889</v>
       </c>
       <c r="J13" s="1">
-        <v>16.5612</v>
+        <v>118545.7567</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>105330.0864</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.3627</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-9377.2644</v>
       </c>
-      <c r="O13" s="1">
-        <v>5237.1451</v>
-      </c>
-      <c r="P13" s="1">
-        <v>128592.7688</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.009299999999999999</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>18.3524</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6963.8542</v>
       </c>
       <c r="F14" s="1">
         <v>-6963.8542</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>127140.4785</v>
       </c>
       <c r="I14" s="1">
-        <v>115330.0864</v>
+        <v>5141.5245</v>
       </c>
       <c r="J14" s="1">
-        <v>16.5612</v>
+        <v>132282.003</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>105330.0864</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.1253</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>127140.4785</v>
       </c>
-      <c r="O14" s="1">
-        <v>132377.6236</v>
-      </c>
-      <c r="P14" s="1">
-        <v>132377.6236</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0448</v>
+        <v>0.0291</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>14.6185</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>684.0647</v>
       </c>
       <c r="G2" s="1">
-        <v>684.0647</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1479</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.6185</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1479</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>15.2363</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>684.0647</v>
       </c>
       <c r="F3" s="1">
         <v>642.029</v>
       </c>
       <c r="G3" s="1">
-        <v>1326.0937</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10368.5741</v>
       </c>
       <c r="I3" s="1">
-        <v>19782.1462</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.9176</v>
+        <v>10368.5741</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9782.146199999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9782.146199999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>217.8538</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20317.8538</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0185</v>
+        <v>0.0369</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>15.9097</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1326.0937</v>
       </c>
       <c r="F4" s="1">
         <v>588.3953</v>
       </c>
       <c r="G4" s="1">
-        <v>1914.489</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20988.3502</v>
       </c>
       <c r="I4" s="1">
-        <v>29143.3387</v>
+        <v>217.8538</v>
       </c>
       <c r="J4" s="1">
-        <v>15.2225</v>
+        <v>21206.2039</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19143.3387</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.4359</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9361.1924</v>
       </c>
-      <c r="O4" s="1">
-        <v>856.6613</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31157.6613</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0277</v>
+        <v>0.0411</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>15.3909</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1914.489</v>
       </c>
       <c r="F5" s="1">
         <v>705.3948</v>
       </c>
       <c r="G5" s="1">
-        <v>2619.8838</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40113.3031</v>
+        <v>29312.9322</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>856.6613</v>
       </c>
       <c r="J5" s="1">
-        <v>15.2679</v>
+        <v>30169.5936</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.67</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10856.6613</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40113.3031</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0254</v>
+        <v>-0.0332</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>16.1095</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2619.8838</v>
       </c>
       <c r="F6" s="1">
         <v>563.072</v>
       </c>
       <c r="G6" s="1">
-        <v>3182.9558</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>41986.258</v>
       </c>
       <c r="I6" s="1">
-        <v>49070.8086</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.4167</v>
+        <v>41986.258</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39070.8086</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.9132</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9070.8086</v>
       </c>
-      <c r="O6" s="1">
-        <v>929.1914</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51939.2415</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0364</v>
+        <v>0.0452</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>16.1222</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3182.9558</v>
       </c>
       <c r="F7" s="1">
         <v>652.7998</v>
       </c>
       <c r="G7" s="1">
-        <v>3835.7557</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>51050.1553</v>
       </c>
       <c r="I7" s="1">
-        <v>59595.3779</v>
+        <v>929.1914</v>
       </c>
       <c r="J7" s="1">
-        <v>15.5368</v>
+        <v>51979.3467</v>
       </c>
       <c r="K7" s="1">
+        <v>49595.3779</v>
+      </c>
+      <c r="L7" s="1">
+        <v>15.5815</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.2</v>
       </c>
-      <c r="L7" s="1">
-        <v>572.932</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-9951.6373</v>
+        <v>471.5791</v>
       </c>
       <c r="O7" s="1">
-        <v>977.5540999999999</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>62497.7047</v>
+        <v>-10052.9902</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.008999999999999999</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>17.3453</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3835.7557</v>
       </c>
       <c r="F8" s="1">
         <v>344.7195</v>
       </c>
       <c r="G8" s="1">
-        <v>4180.4751</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>66187.1145</v>
       </c>
       <c r="I8" s="1">
-        <v>65574.6403</v>
+        <v>876.2012</v>
       </c>
       <c r="J8" s="1">
-        <v>15.6859</v>
+        <v>67063.31570000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>55574.6403</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.4886</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-5979.2624</v>
       </c>
-      <c r="O8" s="1">
-        <v>4998.2918</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77133.6439</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0639</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.8769</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4180.4751</v>
       </c>
       <c r="F9" s="1">
         <v>478.5315</v>
       </c>
       <c r="G9" s="1">
-        <v>4659.0066</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>74346.4054</v>
       </c>
       <c r="I9" s="1">
-        <v>74129.30039999999</v>
+        <v>4896.9388</v>
       </c>
       <c r="J9" s="1">
-        <v>15.911</v>
+        <v>79243.34420000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>64129.3004</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.3402</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8554.660099999999</v>
       </c>
-      <c r="O9" s="1">
-        <v>6443.6317</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89300.3373</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0249</v>
+        <v>0.0283</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.8772</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4659.0066</v>
       </c>
       <c r="F10" s="1">
         <v>608.7981</v>
       </c>
       <c r="G10" s="1">
-        <v>5267.8047</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>82858.1033</v>
       </c>
       <c r="I10" s="1">
-        <v>85012.9053</v>
+        <v>6342.2787</v>
       </c>
       <c r="J10" s="1">
-        <v>16.1382</v>
+        <v>89200.382</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>75012.9053</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.1006</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10883.6049</v>
       </c>
-      <c r="O10" s="1">
-        <v>5560.0267</v>
-      </c>
-      <c r="P10" s="1">
-        <v>99245.2994</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>18.1874</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5267.8047</v>
       </c>
       <c r="F11" s="1">
         <v>514.6276</v>
       </c>
       <c r="G11" s="1">
-        <v>5782.4323</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>95310.9172</v>
       </c>
       <c r="I11" s="1">
-        <v>94372.64290000001</v>
+        <v>5458.6738</v>
       </c>
       <c r="J11" s="1">
-        <v>16.3206</v>
+        <v>100769.591</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>84372.64290000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.0167</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-9359.7376</v>
       </c>
-      <c r="O11" s="1">
-        <v>6200.2891</v>
-      </c>
-      <c r="P11" s="1">
-        <v>110822.4145</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0144</v>
+        <v>0.0158</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.6132</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5782.4323</v>
       </c>
       <c r="F12" s="1">
         <v>818.9641</v>
       </c>
       <c r="G12" s="1">
-        <v>6601.3964</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>101318.6219</v>
       </c>
       <c r="I12" s="1">
-        <v>108797.221</v>
+        <v>6098.9362</v>
       </c>
       <c r="J12" s="1">
-        <v>16.4809</v>
+        <v>107417.558</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>98797.22100000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.0858</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-14424.5781</v>
       </c>
-      <c r="O12" s="1">
-        <v>1775.711</v>
-      </c>
-      <c r="P12" s="1">
-        <v>117444.0577</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.028</v>
+        <v>-0.0303</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.806</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6601.3964</v>
       </c>
       <c r="F13" s="1">
         <v>558.3179</v>
       </c>
       <c r="G13" s="1">
-        <v>7159.7142</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>116935.1546</v>
       </c>
       <c r="I13" s="1">
-        <v>118738.6293</v>
+        <v>1674.358</v>
       </c>
       <c r="J13" s="1">
-        <v>16.5843</v>
+        <v>118609.5127</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>108738.6293</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.4721</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-9941.4082</v>
       </c>
-      <c r="O13" s="1">
-        <v>1834.3028</v>
-      </c>
-      <c r="P13" s="1">
-        <v>128659.3329</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0095</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>18.3524</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7159.7142</v>
       </c>
       <c r="F14" s="1">
         <v>-7159.7142</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>130716.3348</v>
       </c>
       <c r="I14" s="1">
-        <v>118738.6293</v>
+        <v>1732.9498</v>
       </c>
       <c r="J14" s="1">
-        <v>16.5843</v>
+        <v>132449.2846</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>108738.6293</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.1876</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>130716.3348</v>
       </c>
-      <c r="O14" s="1">
-        <v>132550.6376</v>
-      </c>
-      <c r="P14" s="1">
-        <v>132550.6376</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0441</v>
+        <v>0.0299</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>14.6185</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>684.0647</v>
       </c>
       <c r="G2" s="1">
-        <v>684.0647</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1479</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.6185</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1479</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>15.2363</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>684.0647</v>
       </c>
       <c r="F3" s="1">
         <v>645.3277</v>
       </c>
       <c r="G3" s="1">
-        <v>1329.3924</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10368.5741</v>
       </c>
       <c r="I3" s="1">
-        <v>19832.4068</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.9184</v>
+        <v>10368.5741</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9832.406800000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.3735</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9832.406800000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>167.5932</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20317.5932</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0185</v>
+        <v>0.0369</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>15.9097</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1329.3924</v>
       </c>
       <c r="F4" s="1">
         <v>594.6529</v>
       </c>
       <c r="G4" s="1">
-        <v>1924.0453</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>21040.56</v>
       </c>
       <c r="I4" s="1">
-        <v>29293.1557</v>
+        <v>167.5932</v>
       </c>
       <c r="J4" s="1">
-        <v>15.2248</v>
+        <v>21208.1532</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19293.1557</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.5128</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9460.748900000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>706.8443</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31159.0943</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0278</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>15.3909</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1924.0453</v>
       </c>
       <c r="F5" s="1">
         <v>695.6607</v>
       </c>
       <c r="G5" s="1">
-        <v>2619.706</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40110.5808</v>
+        <v>29459.2502</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>706.8443</v>
       </c>
       <c r="J5" s="1">
-        <v>15.2689</v>
+        <v>30166.0945</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.5921</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10706.8443</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40110.5808</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0255</v>
+        <v>-0.0334</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>16.1095</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2619.706</v>
       </c>
       <c r="F6" s="1">
         <v>595.2365</v>
       </c>
       <c r="G6" s="1">
-        <v>3214.9425</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>41983.4086</v>
       </c>
       <c r="I6" s="1">
-        <v>49588.9629</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.4245</v>
+        <v>41983.4086</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39588.9629</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.112</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9588.9629</v>
       </c>
-      <c r="O6" s="1">
-        <v>411.0371</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51933.7064</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0364</v>
+        <v>0.0452</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>16.1222</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3214.9425</v>
       </c>
       <c r="F7" s="1">
         <v>645.7578</v>
       </c>
       <c r="G7" s="1">
-        <v>3860.7004</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>61920.2293</v>
+        <v>51563.1775</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>411.0371</v>
       </c>
       <c r="J7" s="1">
-        <v>15.5412</v>
+        <v>51974.2147</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>15.5524</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.2</v>
       </c>
-      <c r="L7" s="1">
-        <v>578.6897</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-9832.3475</v>
+        <v>471.5471</v>
       </c>
       <c r="O7" s="1">
-        <v>578.6897</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>62498.919</v>
+        <v>-9939.49</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0091</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>17.3453</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3860.7004</v>
       </c>
       <c r="F8" s="1">
         <v>383.2097</v>
       </c>
       <c r="G8" s="1">
-        <v>4243.9101</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>66617.5435</v>
       </c>
       <c r="I8" s="1">
-        <v>66646.8873</v>
+        <v>471.5471</v>
       </c>
       <c r="J8" s="1">
-        <v>15.7041</v>
+        <v>67089.09050000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>56646.8873</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.6727</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-6646.8873</v>
       </c>
-      <c r="O8" s="1">
-        <v>3931.8023</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77161.74430000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0643</v>
+        <v>0.0825</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.8769</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4243.9101</v>
       </c>
       <c r="F9" s="1">
         <v>497.8489</v>
       </c>
       <c r="G9" s="1">
-        <v>4741.759</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>75474.546</v>
       </c>
       <c r="I9" s="1">
-        <v>75546.883</v>
+        <v>3824.6597</v>
       </c>
       <c r="J9" s="1">
-        <v>15.9322</v>
+        <v>79299.20570000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>65546.883</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.4449</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8899.995699999999</v>
       </c>
-      <c r="O9" s="1">
-        <v>5031.8066</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89360.1977</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0252</v>
+        <v>0.0287</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.8772</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4741.759</v>
       </c>
       <c r="F10" s="1">
         <v>633.3326</v>
       </c>
       <c r="G10" s="1">
-        <v>5375.0916</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>84329.81359999999</v>
       </c>
       <c r="I10" s="1">
-        <v>86869.0963</v>
+        <v>4924.6641</v>
       </c>
       <c r="J10" s="1">
-        <v>16.1614</v>
+        <v>89254.4777</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>76869.0963</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.2111</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-11322.2133</v>
       </c>
-      <c r="O10" s="1">
-        <v>3709.5934</v>
-      </c>
-      <c r="P10" s="1">
-        <v>99302.9103</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>18.1874</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5375.0916</v>
       </c>
       <c r="F11" s="1">
         <v>540.2693</v>
       </c>
       <c r="G11" s="1">
-        <v>5915.3609</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>97252.0702</v>
       </c>
       <c r="I11" s="1">
-        <v>96695.1902</v>
+        <v>3602.4508</v>
       </c>
       <c r="J11" s="1">
-        <v>16.3465</v>
+        <v>100854.521</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>86695.1902</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.1291</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-9826.0939</v>
       </c>
-      <c r="O11" s="1">
-        <v>3883.4995</v>
-      </c>
-      <c r="P11" s="1">
-        <v>110910.7162</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0147</v>
+        <v>0.0161</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.6132</v>
       </c>
       <c r="E12" s="1">
+        <v>5915.3609</v>
+      </c>
+      <c r="F12" s="1">
+        <v>782.1609</v>
+      </c>
+      <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
-      <c r="F12" s="1">
-        <v>788.244</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6703.6049</v>
-      </c>
       <c r="H12" s="1">
-        <v>117459.225</v>
+        <v>103647.771</v>
       </c>
       <c r="I12" s="1">
-        <v>110578.6897</v>
+        <v>3776.3569</v>
       </c>
       <c r="J12" s="1">
-        <v>16.4954</v>
+        <v>107424.1279</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100471.5471</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.9849</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-13883.4995</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>117459.225</v>
+        <v>-13776.3569</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0285</v>
+        <v>-0.0309</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.806</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6697.5219</v>
       </c>
       <c r="F13" s="1">
         <v>561.6084</v>
       </c>
       <c r="G13" s="1">
-        <v>7265.2134</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>128693.8103</v>
+        <v>118637.8928</v>
       </c>
       <c r="I13" s="1">
-        <v>120578.6897</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.5967</v>
+        <v>118637.8928</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110471.5471</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.4944</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>128693.8103</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0097</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>18.3524</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7259.1303</v>
       </c>
       <c r="F14" s="1">
-        <v>-7265.2134</v>
+        <v>-7259.1303</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>132531.3937</v>
       </c>
       <c r="I14" s="1">
-        <v>120578.6897</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.5967</v>
+        <v>132531.3937</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110471.5471</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.2183</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>132642.4538</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>132642.4538</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>132642.4538</v>
+        <v>132531.3937</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0436</v>
+        <v>0.0303</v>
       </c>
     </row>
   </sheetData>
@@ -4480,7 +4453,7 @@
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>18.3029</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>16.5933</v>
+        <v>15.215</v>
       </c>
       <c r="D3" s="1">
-        <v>16.5388</v>
+        <v>15.0626</v>
       </c>
       <c r="E3" s="1">
-        <v>16.5612</v>
+        <v>15.1253</v>
       </c>
       <c r="F3" s="1">
-        <v>16.5843</v>
+        <v>15.1876</v>
       </c>
       <c r="G3" s="1">
-        <v>16.5967</v>
+        <v>15.2183</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.2353</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1079</v>
+        <v>0.2267</v>
       </c>
       <c r="D4" s="3">
-        <v>0.103</v>
+        <v>0.2214</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1048</v>
+        <v>0.2234</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1065</v>
+        <v>0.2253</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1075</v>
+        <v>0.2262</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1069</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1006</v>
+        <v>0.1098</v>
       </c>
       <c r="D5" s="3">
-        <v>0.099</v>
+        <v>0.1059</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0994</v>
+        <v>0.1069</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0997</v>
+        <v>0.108</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1</v>
+        <v>0.1088</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>2.0109</v>
       </c>
       <c r="C6" s="4">
-        <v>0.8704</v>
+        <v>1.8784</v>
       </c>
       <c r="D6" s="4">
-        <v>0.8346</v>
+        <v>1.8993</v>
       </c>
       <c r="E6" s="4">
-        <v>0.8497</v>
+        <v>1.899</v>
       </c>
       <c r="F6" s="4">
-        <v>0.8643</v>
+        <v>1.8979</v>
       </c>
       <c r="G6" s="4">
-        <v>0.8713</v>
+        <v>1.8933</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2011</v>
+        <v>0.0345</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2086</v>
+        <v>0.2068</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2077</v>
+        <v>0.2058</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2067</v>
+        <v>0.2047</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2051</v>
+        <v>0.2031</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>583.0966</v>
+        <v>471.3613</v>
       </c>
       <c r="D8" s="1">
-        <v>561.5874</v>
+        <v>470.2471</v>
       </c>
       <c r="E8" s="1">
-        <v>567.2314</v>
+        <v>471.6109</v>
       </c>
       <c r="F8" s="1">
-        <v>572.932</v>
+        <v>471.5791</v>
       </c>
       <c r="G8" s="1">
-        <v>578.6897</v>
+        <v>471.5471</v>
       </c>
     </row>
   </sheetData>
